--- a/data/spring_2023.xlsx
+++ b/data/spring_2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\publicworks\TREE FOLDER\Residential Tree Planting Program\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pmedina\Documents\Projects\Colle_Park_Residential_Tree_Planting_PRogram\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CDCD57BC-CBDE-4085-A52F-531F616E5455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7259DD6-B2FE-4327-9D3E-35D37E9C65E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Export_76" sheetId="1" r:id="rId1"/>
@@ -20,16 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="82">
-  <si>
-    <t>First and Last Name:</t>
-  </si>
-  <si>
-    <t>Email Address:</t>
-  </si>
-  <si>
-    <t>Phone Number:</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="47">
   <si>
     <t>Address:</t>
   </si>
@@ -40,132 +31,42 @@
     <t>Email</t>
   </si>
   <si>
-    <t>Donald Hays</t>
-  </si>
-  <si>
-    <t>Sarah Cutler</t>
-  </si>
-  <si>
-    <t>Skateri@yahoo.com</t>
-  </si>
-  <si>
     <t>7207 Rhode Island Ave</t>
   </si>
   <si>
-    <t>Alan Hew</t>
-  </si>
-  <si>
-    <t>alanhew@gmail.com</t>
-  </si>
-  <si>
     <t xml:space="preserve">9118 Autoville Dr. </t>
   </si>
   <si>
-    <t>Kirstin Showalter</t>
-  </si>
-  <si>
-    <t>kirstinsd@gmail.com</t>
-  </si>
-  <si>
     <t>5121 Kenesaw St</t>
   </si>
   <si>
-    <t>Eric Byrd</t>
-  </si>
-  <si>
-    <t>ebyrd@outlook.com</t>
-  </si>
-  <si>
-    <t>301.613.4234</t>
-  </si>
-  <si>
     <t xml:space="preserve">9116 Saint Andrews Pl </t>
   </si>
   <si>
-    <t>Adam Lee</t>
-  </si>
-  <si>
-    <t>mradamclee@gmail.com</t>
-  </si>
-  <si>
     <t>5911 Bryn Mawr Rd</t>
   </si>
   <si>
-    <t>Anne Tolbert</t>
-  </si>
-  <si>
-    <t>ktolbertmd@gmail.com</t>
-  </si>
-  <si>
-    <t>301-613-3496</t>
-  </si>
-  <si>
     <t>4908 Hollywood Rd</t>
   </si>
   <si>
-    <t>Kelly Booker</t>
-  </si>
-  <si>
-    <t>kellztx@gmail.com</t>
-  </si>
-  <si>
     <t>9237 Limestone Pl</t>
   </si>
   <si>
-    <t>Frances Sutphen</t>
-  </si>
-  <si>
-    <t>healingfls@verizon.net</t>
-  </si>
-  <si>
     <t>4822 Erie Street</t>
   </si>
   <si>
-    <t>John Shea</t>
-  </si>
-  <si>
-    <t>jacqueline.mathey@gmail.com</t>
-  </si>
-  <si>
     <t>8302 49TH AVE</t>
   </si>
   <si>
-    <t>Nancy Harris</t>
-  </si>
-  <si>
-    <t>Nlharris1214@gmail.com</t>
-  </si>
-  <si>
-    <t>hays.donald@gmail.com</t>
-  </si>
-  <si>
-    <t>270-320-2950</t>
-  </si>
-  <si>
     <t>5017 Laguna Road</t>
   </si>
   <si>
-    <t>Maria Mackie, Helen Sourlis</t>
-  </si>
-  <si>
-    <t>mariamackie1985@gmail.com; hvsisa@verizon.net</t>
-  </si>
-  <si>
-    <t>240-472-0681</t>
-  </si>
-  <si>
     <t>9209 Davidson St</t>
   </si>
   <si>
     <t>Preferred Contact</t>
   </si>
   <si>
-    <t>Janice Bernache</t>
-  </si>
-  <si>
-    <t>301-452-6220</t>
-  </si>
-  <si>
     <t>4614 Amherst Rd</t>
   </si>
   <si>
@@ -205,9 +106,6 @@
     <t>Am. Holly</t>
   </si>
   <si>
-    <t>bernacrock@gmail.com</t>
-  </si>
-  <si>
     <t>Area</t>
   </si>
   <si>
@@ -251,9 +149,6 @@
   </si>
   <si>
     <t>Am. Witch Hazel</t>
-  </si>
-  <si>
-    <t>301-385-3375</t>
   </si>
   <si>
     <t>match</t>
@@ -764,7 +659,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -778,9 +673,6 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1142,10 +1034,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1153,549 +1045,414 @@
     <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" customWidth="1"/>
     <col min="3" max="3" width="4.140625" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" customWidth="1"/>
-    <col min="5" max="5" width="28.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" customWidth="1"/>
-    <col min="7" max="7" width="25.5703125" customWidth="1"/>
-    <col min="8" max="8" width="7.85546875" customWidth="1"/>
-    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" customWidth="1"/>
-    <col min="12" max="12" width="19.85546875" customWidth="1"/>
-    <col min="13" max="13" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.5703125" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" customWidth="1"/>
+    <col min="9" max="9" width="19.85546875" customWidth="1"/>
+    <col min="10" max="10" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>44695.910011574073</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="8">
+        <v>33</v>
+      </c>
+      <c r="C2" s="7">
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>2</v>
       </c>
       <c r="F2" s="8">
-        <v>7346492987</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="9">
         <v>44985</v>
       </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>78</v>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>44876.549062500002</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" s="8">
+        <v>37</v>
+      </c>
+      <c r="C3" s="7">
         <v>1</v>
       </c>
       <c r="D3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="8">
+        <v>44986</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="9">
-        <v>44986</v>
-      </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>80</v>
+      <c r="J3" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>44971.460949074077</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="8">
+        <v>36</v>
+      </c>
+      <c r="C4" s="7">
         <v>1</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="F4" s="8">
-        <v>13013950486</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="I4" s="9">
         <v>44986</v>
       </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>78</v>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>44981.370682870373</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C5" s="8">
+        <v>38</v>
+      </c>
+      <c r="C5" s="7">
         <v>1</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>40</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="8">
+        <v>44984</v>
+      </c>
+      <c r="G5" s="5"/>
       <c r="H5" s="5"/>
-      <c r="I5" s="9">
-        <v>44984</v>
-      </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>78</v>
+      <c r="I5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>44690.814872685187</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6" s="8">
+        <v>32</v>
+      </c>
+      <c r="C6" s="7">
         <v>1</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F6" s="8">
-        <v>3014047519</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I6" s="9">
         <v>44985</v>
       </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>78</v>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>44974.435624999998</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" s="8">
+        <v>35</v>
+      </c>
+      <c r="C7" s="7">
         <v>2</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="F7" s="8">
-        <v>2028180025</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I7" s="9">
         <v>44986</v>
       </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>78</v>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>44533</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" s="8">
+        <v>29</v>
+      </c>
+      <c r="C8" s="7">
         <v>3</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="I8" s="9">
+        <v>19</v>
+      </c>
+      <c r="F8" s="8">
         <v>44987</v>
       </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>78</v>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>44681.308287037034</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9" s="8">
+        <v>29</v>
+      </c>
+      <c r="C9" s="7">
         <v>3</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F9" s="8">
-        <v>3014059040</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I9" s="9">
         <v>44987</v>
       </c>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="M9" s="5" t="s">
-        <v>78</v>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>44774.969143518516</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" s="8">
+        <v>34</v>
+      </c>
+      <c r="C10" s="7">
         <v>3</v>
       </c>
       <c r="D10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="8">
+        <v>44987</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="8">
-        <v>3014585128</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I10" s="9">
-        <v>44987</v>
-      </c>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>78</v>
+      <c r="J10" s="5" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>44750.835763888892</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" s="8">
+        <v>31</v>
+      </c>
+      <c r="C11" s="7">
         <v>4</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="I11" s="9">
+        <v>1</v>
+      </c>
+      <c r="F11" s="8">
         <v>44987</v>
       </c>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="M11" s="5" t="s">
-        <v>78</v>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>44960.90483796296</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C12" s="8">
+        <v>31</v>
+      </c>
+      <c r="C12" s="7">
         <v>4</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="F12" s="8">
-        <v>5126586854</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I12" s="9">
         <v>44988</v>
       </c>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="M12" s="5" t="s">
-        <v>79</v>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>44977.322314814817</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C13" s="8">
+        <v>31</v>
+      </c>
+      <c r="C13" s="7">
         <v>4</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I13" s="9">
+        <v>2</v>
+      </c>
+      <c r="F13" s="8">
         <v>44986</v>
       </c>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="M13" s="5" t="s">
-        <v>78</v>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>44981.374907407408</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C14" s="8">
+        <v>31</v>
+      </c>
+      <c r="C14" s="7">
         <v>4</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F14" s="8" t="s">
+      <c r="D14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="8">
+        <v>44985</v>
+      </c>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J14" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="I14" s="9">
-        <v>44985</v>
-      </c>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="M14" s="5" t="s">
-        <v>78</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M14">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J14">
     <sortCondition ref="C10:C14"/>
   </sortState>
-  <hyperlinks>
-    <hyperlink ref="E9" r:id="rId1" xr:uid="{2187E7E2-AE5D-4F78-BD21-CF2723C69788}"/>
-    <hyperlink ref="E2" r:id="rId2" xr:uid="{A689F5C5-F5DA-42CF-A7F5-7EE991EC717E}"/>
-    <hyperlink ref="E10" r:id="rId3" xr:uid="{252B4DAE-EB82-457B-BB5A-4A56792EF80E}"/>
-    <hyperlink ref="E8" r:id="rId4" xr:uid="{24709EF6-92A1-41DA-9640-C2F765AF1019}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="3" orientation="landscape" r:id="rId5"/>
+  <pageSetup paperSize="3" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>